--- a/teaching/traditional_assets/database/data/new_zealand/new_zealand_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/new_zealand/new_zealand_insurance_prop_cas.xlsx
@@ -591,28 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0355</v>
-      </c>
-      <c r="E2">
-        <v>-0.06509999999999999</v>
+        <v>0.04269999999999999</v>
       </c>
       <c r="G2">
-        <v>0.09215376513954712</v>
+        <v>0.1173210161662818</v>
       </c>
       <c r="H2">
-        <v>0.09215376513954712</v>
+        <v>0.1173210161662818</v>
       </c>
       <c r="I2">
-        <v>0.0908512100879279</v>
+        <v>0.1053117782909931</v>
       </c>
       <c r="J2">
-        <v>0.05880247033298401</v>
+        <v>0.06420874840577712</v>
       </c>
       <c r="K2">
-        <v>10.4</v>
+        <v>7.86</v>
       </c>
       <c r="L2">
-        <v>0.05476566614007372</v>
+        <v>0.03630484988452656</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>41.3</v>
+        <v>52.9</v>
       </c>
       <c r="V2">
-        <v>0.200388161086851</v>
+        <v>0.2454756380510441</v>
       </c>
       <c r="W2">
-        <v>0.05736348593491451</v>
+        <v>0.04316309719934103</v>
       </c>
       <c r="X2">
-        <v>0.04669548593673544</v>
+        <v>0.04079568500000472</v>
       </c>
       <c r="Y2">
-        <v>0.01066799999817906</v>
+        <v>0.002367412199336311</v>
       </c>
       <c r="Z2">
-        <v>1.761811671239699</v>
+        <v>1.523039043264158</v>
       </c>
       <c r="AA2">
-        <v>0.1035988785303774</v>
+        <v>0.09779243074112379</v>
       </c>
       <c r="AB2">
-        <v>0.04490092751888557</v>
+        <v>0.04009472595480686</v>
       </c>
       <c r="AC2">
-        <v>0.05869795101149181</v>
+        <v>0.05769770478631693</v>
       </c>
       <c r="AD2">
-        <v>9.35</v>
+        <v>5.75</v>
       </c>
       <c r="AE2">
-        <v>5.686776021512455</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>15.03677602151246</v>
+        <v>5.75</v>
       </c>
       <c r="AG2">
-        <v>-26.26322397848754</v>
+        <v>-47.15</v>
       </c>
       <c r="AH2">
-        <v>0.06799762704349846</v>
+        <v>0.02598870056497175</v>
       </c>
       <c r="AI2">
-        <v>0.07585260577422163</v>
+        <v>0.02444208289054198</v>
       </c>
       <c r="AJ2">
-        <v>-0.1460392282351963</v>
+        <v>-0.2800712800712801</v>
       </c>
       <c r="AK2">
-        <v>-0.1673490729469774</v>
+        <v>-0.2585686865917192</v>
       </c>
       <c r="AL2">
-        <v>0.195</v>
+        <v>0.744</v>
       </c>
       <c r="AM2">
-        <v>0.195</v>
+        <v>0.744</v>
       </c>
       <c r="AN2">
-        <v>0.482207323362558</v>
+        <v>0.2263779527559055</v>
       </c>
       <c r="AO2">
-        <v>84.61538461538461</v>
+        <v>30.64516129032258</v>
       </c>
       <c r="AP2">
-        <v>-1.354472613640409</v>
+        <v>-1.856299212598425</v>
       </c>
       <c r="AQ2">
-        <v>84.61538461538461</v>
+        <v>30.64516129032258</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0355</v>
-      </c>
-      <c r="E3">
-        <v>-0.06509999999999999</v>
+        <v>0.04269999999999999</v>
       </c>
       <c r="G3">
-        <v>0.09215376513954712</v>
+        <v>0.1173210161662818</v>
       </c>
       <c r="H3">
-        <v>0.09215376513954712</v>
+        <v>0.1173210161662818</v>
       </c>
       <c r="I3">
-        <v>0.0908512100879279</v>
+        <v>0.1053117782909931</v>
       </c>
       <c r="J3">
-        <v>0.05880247033298401</v>
+        <v>0.06420874840577712</v>
       </c>
       <c r="K3">
-        <v>10.4</v>
+        <v>7.86</v>
       </c>
       <c r="L3">
-        <v>0.05476566614007372</v>
+        <v>0.03630484988452656</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>41.3</v>
+        <v>52.9</v>
       </c>
       <c r="V3">
-        <v>0.200388161086851</v>
+        <v>0.2454756380510441</v>
       </c>
       <c r="W3">
-        <v>0.05736348593491451</v>
+        <v>0.04316309719934103</v>
       </c>
       <c r="X3">
-        <v>0.04669548593673544</v>
+        <v>0.04079568500000472</v>
       </c>
       <c r="Y3">
-        <v>0.01066799999817906</v>
+        <v>0.002367412199336311</v>
       </c>
       <c r="Z3">
-        <v>1.761811671239699</v>
+        <v>1.523039043264158</v>
       </c>
       <c r="AA3">
-        <v>0.1035988785303774</v>
+        <v>0.09779243074112379</v>
       </c>
       <c r="AB3">
-        <v>0.04490092751888557</v>
+        <v>0.04009472595480686</v>
       </c>
       <c r="AC3">
-        <v>0.05869795101149181</v>
+        <v>0.05769770478631693</v>
       </c>
       <c r="AD3">
-        <v>9.35</v>
+        <v>5.75</v>
       </c>
       <c r="AE3">
-        <v>5.686776021512455</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.03677602151246</v>
+        <v>5.75</v>
       </c>
       <c r="AG3">
-        <v>-26.26322397848754</v>
+        <v>-47.15</v>
       </c>
       <c r="AH3">
-        <v>0.06799762704349846</v>
+        <v>0.02598870056497175</v>
       </c>
       <c r="AI3">
-        <v>0.07585260577422163</v>
+        <v>0.02444208289054198</v>
       </c>
       <c r="AJ3">
-        <v>-0.1460392282351963</v>
+        <v>-0.2800712800712801</v>
       </c>
       <c r="AK3">
-        <v>-0.1673490729469774</v>
+        <v>-0.2585686865917192</v>
       </c>
       <c r="AL3">
-        <v>0.195</v>
+        <v>0.744</v>
       </c>
       <c r="AM3">
-        <v>0.195</v>
+        <v>0.744</v>
       </c>
       <c r="AN3">
-        <v>0.482207323362558</v>
+        <v>0.2263779527559055</v>
       </c>
       <c r="AO3">
-        <v>84.61538461538461</v>
+        <v>30.64516129032258</v>
       </c>
       <c r="AP3">
-        <v>-1.354472613640409</v>
+        <v>-1.856299212598425</v>
       </c>
       <c r="AQ3">
-        <v>84.61538461538461</v>
+        <v>30.64516129032258</v>
       </c>
     </row>
   </sheetData>
